--- a/2024/bio/sap/sap.xlsx
+++ b/2024/bio/sap/sap.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CaCl2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="H2O" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NaCl" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CaCl2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,6 +464,198 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PANa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="E3" t="n">
+        <v>397.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>試料量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>吸水前全質量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>吸水後全質量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>吸水量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CMC SAP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56.18181818181817</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PANa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.90000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>試料量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>吸水前全質量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>吸水後全質量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>吸水量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CMC SAP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
